--- a/scorecard_generator/exports/scorecard.xlsx
+++ b/scorecard_generator/exports/scorecard.xlsx
@@ -424,28 +424,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Two Bats or Not To Bat: 11/1</t>
+          <t>Australia: 12/0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australia: 10/2</t>
+          <t>England: 12/0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Australia win by 1 runs!</t>
+          <t>Match tied!</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Two Bats or Not To Bat Batting</t>
+          <t>Australia Batting</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tristan Langford</t>
+          <t>David Warner</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -518,19 +518,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SJ Carter</t>
+          <t>Travis Head</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>c &amp; b Zampa</t>
+          <t>not out</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -540,26 +540,26 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>100.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ayush Newatia</t>
+          <t>Steve Smith</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>run out (Hazlewood)</t>
+          <t>not out</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Suraj Saggar</t>
+          <t>Glenn Maxwell</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -598,14 +598,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Prasanna Dhamal</t>
+          <t>Marcus Stoinis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shelwin Shaju</t>
+          <t>Mitchell Marsh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -663,7 +663,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CPW Chilvers</t>
+          <t>Josh Inglis</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JB Louw</t>
+          <t>Pat Cummins</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -721,7 +721,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LM Hatten</t>
+          <t>Mitch Starc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -750,7 +750,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OCYG Willems</t>
+          <t>Adam Zampa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -779,7 +779,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Marcelo R. Terreiro</t>
+          <t>Josh Hazlewood</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Australia Bowling</t>
+          <t>England Bowling</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Adam Zampa</t>
+          <t>Jos Buttler</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -939,7 +939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Australia Batting</t>
+          <t>England Batting</t>
         </is>
       </c>
     </row>
@@ -983,19 +983,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>David Warner</t>
+          <t>Jos Buttler</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>b Langford</t>
+          <t>not out</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1005,14 +1005,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>100.00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Travis Head</t>
+          <t>Jonny Bairstow</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Steve Smith</t>
+          <t>Moeen Ali</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1063,14 +1063,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Glenn Maxwell</t>
+          <t>Ben Stokes</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Marcus Stoinis</t>
+          <t>Joe Root</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mitchell Marsh</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Josh Inglis</t>
+          <t>Sam Curran</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1186,7 +1186,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pat Cummins</t>
+          <t>Harry Brook</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mitch Starc</t>
+          <t>Reece Topley</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1244,7 +1244,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Adam Zampa</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1273,7 +1273,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1302,7 +1302,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Two Bats or Not To Bat Bowling</t>
+          <t>Australia Bowling</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tristan Langford</t>
+          <t>Adam Zampa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SJ Carter</t>
+          <t>Josh Hazlewood</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">

--- a/scorecard_generator/exports/scorecard.xlsx
+++ b/scorecard_generator/exports/scorecard.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,14 +431,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>England: 12/0</t>
+          <t>England: 18/0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Match tied!</t>
+          <t>England win by 10 wicket(s)!</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jos Buttler</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -992,20 +992,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>600.00</t>
         </is>
       </c>
     </row>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -1361,19 +1361,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Adam Zampa</t>
+          <t>Josh Hazlewood</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1385,48 +1385,12 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Josh Hazlewood</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
